--- a/results/mp/deberta/corona/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
@@ -100,25 +100,25 @@
     <t>positive</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>relief</t>
@@ -1198,25 +1198,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.658008658008658</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L19">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1224,13 +1224,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6521739130434783</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="N20">
         <v>0.9399999999999999</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1250,25 +1250,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6444444444444445</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L21">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="M21">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1328,25 +1328,25 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5548780487804879</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L24">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1354,25 +1354,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5441176470588235</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="10:17">
